--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.550273</v>
+        <v>1.3492965</v>
       </c>
       <c r="H2">
-        <v>5.100546</v>
+        <v>2.698593</v>
       </c>
       <c r="I2">
-        <v>0.1830612883163387</v>
+        <v>0.04484382846135909</v>
       </c>
       <c r="J2">
-        <v>0.1299717935339278</v>
+        <v>0.03039598264673914</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N2">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O2">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P2">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q2">
-        <v>1.890971323494</v>
+        <v>2.3871200466435</v>
       </c>
       <c r="R2">
-        <v>7.563885293976</v>
+        <v>9.548480186574</v>
       </c>
       <c r="S2">
-        <v>0.00288072708432167</v>
+        <v>0.001242001757301358</v>
       </c>
       <c r="T2">
-        <v>0.001386380705859052</v>
+        <v>0.0005755954579250984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.550273</v>
+        <v>1.3492965</v>
       </c>
       <c r="H3">
-        <v>5.100546</v>
+        <v>2.698593</v>
       </c>
       <c r="I3">
-        <v>0.1830612883163387</v>
+        <v>0.04484382846135909</v>
       </c>
       <c r="J3">
-        <v>0.1299717935339278</v>
+        <v>0.03039598264673914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>131.294375</v>
       </c>
       <c r="O3">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P3">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q3">
-        <v>111.612166538125</v>
+        <v>59.0516802190625</v>
       </c>
       <c r="R3">
-        <v>669.67299922875</v>
+        <v>354.310081314375</v>
       </c>
       <c r="S3">
-        <v>0.1700312358476745</v>
+        <v>0.03072417355247766</v>
       </c>
       <c r="T3">
-        <v>0.1227440249662317</v>
+        <v>0.02135829676730994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.550273</v>
+        <v>1.3492965</v>
       </c>
       <c r="H4">
-        <v>5.100546</v>
+        <v>2.698593</v>
       </c>
       <c r="I4">
-        <v>0.1830612883163387</v>
+        <v>0.04484382846135909</v>
       </c>
       <c r="J4">
-        <v>0.1299717935339278</v>
+        <v>0.03039598264673914</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N4">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O4">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P4">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q4">
-        <v>1.104385521558</v>
+        <v>0.9349639758555001</v>
       </c>
       <c r="R4">
-        <v>6.626313129348</v>
+        <v>5.609783855133</v>
       </c>
       <c r="S4">
-        <v>0.00168243338434473</v>
+        <v>0.0004864551754147356</v>
       </c>
       <c r="T4">
-        <v>0.001214533578506927</v>
+        <v>0.0003381654508218294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.550273</v>
+        <v>1.3492965</v>
       </c>
       <c r="H5">
-        <v>5.100546</v>
+        <v>2.698593</v>
       </c>
       <c r="I5">
-        <v>0.1830612883163387</v>
+        <v>0.04484382846135909</v>
       </c>
       <c r="J5">
-        <v>0.1299717935339278</v>
+        <v>0.03039598264673914</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N5">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O5">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P5">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q5">
-        <v>4.051839313714499</v>
+        <v>4.064046650939249</v>
       </c>
       <c r="R5">
-        <v>16.207357254858</v>
+        <v>16.256186603757</v>
       </c>
       <c r="S5">
-        <v>0.006172617800871544</v>
+        <v>0.002114494865609523</v>
       </c>
       <c r="T5">
-        <v>0.002970638305289346</v>
+        <v>0.0009799451838903223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.550273</v>
+        <v>1.3492965</v>
       </c>
       <c r="H6">
-        <v>5.100546</v>
+        <v>2.698593</v>
       </c>
       <c r="I6">
-        <v>0.1830612883163387</v>
+        <v>0.04484382846135909</v>
       </c>
       <c r="J6">
-        <v>0.1299717935339278</v>
+        <v>0.03039598264673914</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N6">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O6">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P6">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q6">
-        <v>1.220740027001</v>
+        <v>19.1194050208945</v>
       </c>
       <c r="R6">
-        <v>7.324440162006</v>
+        <v>114.716430125367</v>
       </c>
       <c r="S6">
-        <v>0.001859689152873875</v>
+        <v>0.009947691850645219</v>
       </c>
       <c r="T6">
-        <v>0.001342492928853832</v>
+        <v>0.006915263459664239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.550273</v>
+        <v>1.3492965</v>
       </c>
       <c r="H7">
-        <v>5.100546</v>
+        <v>2.698593</v>
       </c>
       <c r="I7">
-        <v>0.1830612883163387</v>
+        <v>0.04484382846135909</v>
       </c>
       <c r="J7">
-        <v>0.1299717935339278</v>
+        <v>0.03039598264673914</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N7">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O7">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P7">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q7">
-        <v>0.285270987507</v>
+        <v>0.632357699566</v>
       </c>
       <c r="R7">
-        <v>1.711625925042</v>
+        <v>3.794146197396</v>
       </c>
       <c r="S7">
-        <v>0.0004345850462524009</v>
+        <v>0.0003290112599105949</v>
       </c>
       <c r="T7">
-        <v>0.000313723049186937</v>
+        <v>0.0002287163271277105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.097938333333333</v>
+        <v>4.650801</v>
       </c>
       <c r="H8">
-        <v>21.293815</v>
+        <v>13.952403</v>
       </c>
       <c r="I8">
-        <v>0.5094975070080442</v>
+        <v>0.1545692308932228</v>
       </c>
       <c r="J8">
-        <v>0.5426076594014946</v>
+        <v>0.1571548579086624</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N8">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O8">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P8">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q8">
-        <v>5.262965119523334</v>
+        <v>8.228006446359002</v>
       </c>
       <c r="R8">
-        <v>31.57779071714</v>
+        <v>49.36803867815401</v>
       </c>
       <c r="S8">
-        <v>0.008017660540529719</v>
+        <v>0.004280973837002404</v>
       </c>
       <c r="T8">
-        <v>0.005787877272380659</v>
+        <v>0.002975972958478925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.097938333333333</v>
+        <v>4.650801</v>
       </c>
       <c r="H9">
-        <v>21.293815</v>
+        <v>13.952403</v>
       </c>
       <c r="I9">
-        <v>0.5094975070080442</v>
+        <v>0.1545692308932228</v>
       </c>
       <c r="J9">
-        <v>0.5426076594014946</v>
+        <v>0.1571548579086624</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>131.294375</v>
       </c>
       <c r="O9">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P9">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q9">
-        <v>310.6397924211805</v>
+        <v>203.541336848125</v>
       </c>
       <c r="R9">
-        <v>2795.758131790625</v>
+        <v>1831.872031633125</v>
       </c>
       <c r="S9">
-        <v>0.473232170354801</v>
+        <v>0.1059011248321156</v>
       </c>
       <c r="T9">
-        <v>0.5124330924544784</v>
+        <v>0.1104277539781306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.097938333333333</v>
+        <v>4.650801</v>
       </c>
       <c r="H10">
-        <v>21.293815</v>
+        <v>13.952403</v>
       </c>
       <c r="I10">
-        <v>0.5094975070080442</v>
+        <v>0.1545692308932228</v>
       </c>
       <c r="J10">
-        <v>0.5426076594014946</v>
+        <v>0.1571548579086624</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N10">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O10">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P10">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q10">
-        <v>3.073733803496667</v>
+        <v>3.222665584527001</v>
       </c>
       <c r="R10">
-        <v>27.66360423147</v>
+        <v>29.003990260743</v>
       </c>
       <c r="S10">
-        <v>0.004682560812909125</v>
+        <v>0.001676730219246865</v>
       </c>
       <c r="T10">
-        <v>0.005070448013215541</v>
+        <v>0.001748400240622741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.097938333333333</v>
+        <v>4.650801</v>
       </c>
       <c r="H11">
-        <v>21.293815</v>
+        <v>13.952403</v>
       </c>
       <c r="I11">
-        <v>0.5094975070080442</v>
+        <v>0.1545692308932228</v>
       </c>
       <c r="J11">
-        <v>0.5426076594014946</v>
+        <v>0.1571548579086624</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N11">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O11">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P11">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q11">
-        <v>11.2771086018325</v>
+        <v>14.0080940165745</v>
       </c>
       <c r="R11">
-        <v>67.66265161099498</v>
+        <v>84.04856409944701</v>
       </c>
       <c r="S11">
-        <v>0.01717967468809097</v>
+        <v>0.007288312713678306</v>
       </c>
       <c r="T11">
-        <v>0.01240185315547489</v>
+        <v>0.005066562509999427</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.097938333333333</v>
+        <v>4.650801</v>
       </c>
       <c r="H12">
-        <v>21.293815</v>
+        <v>13.952403</v>
       </c>
       <c r="I12">
-        <v>0.5094975070080442</v>
+        <v>0.1545692308932228</v>
       </c>
       <c r="J12">
-        <v>0.5426076594014946</v>
+        <v>0.1571548579086624</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N12">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O12">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P12">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q12">
-        <v>3.397572507996111</v>
+        <v>65.90141454497301</v>
       </c>
       <c r="R12">
-        <v>30.578152571965</v>
+        <v>593.1127309047571</v>
       </c>
       <c r="S12">
-        <v>0.005175900355086562</v>
+        <v>0.03428804210688506</v>
       </c>
       <c r="T12">
-        <v>0.005604654102878726</v>
+        <v>0.0357536474156754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.097938333333333</v>
+        <v>4.650801</v>
       </c>
       <c r="H13">
-        <v>21.293815</v>
+        <v>13.952403</v>
       </c>
       <c r="I13">
-        <v>0.5094975070080442</v>
+        <v>0.1545692308932228</v>
       </c>
       <c r="J13">
-        <v>0.5426076594014946</v>
+        <v>0.1571548579086624</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N13">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O13">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P13">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q13">
-        <v>0.7939682840283333</v>
+        <v>2.179631994524</v>
       </c>
       <c r="R13">
-        <v>7.145714556255</v>
+        <v>19.616687950716</v>
       </c>
       <c r="S13">
-        <v>0.001209540256626783</v>
+        <v>0.001134047184294523</v>
       </c>
       <c r="T13">
-        <v>0.001309734403066365</v>
+        <v>0.001182520805755314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.9492136666666665</v>
+        <v>0.135832</v>
       </c>
       <c r="H14">
-        <v>2.847640999999999</v>
+        <v>0.271664</v>
       </c>
       <c r="I14">
-        <v>0.06813555909797724</v>
+        <v>0.00451437242115675</v>
       </c>
       <c r="J14">
-        <v>0.07256340950767776</v>
+        <v>0.003059925757512801</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N14">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O14">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P14">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q14">
-        <v>0.7038210511326666</v>
+        <v>0.240308405288</v>
       </c>
       <c r="R14">
-        <v>4.222926306795999</v>
+        <v>0.9612336211520002</v>
       </c>
       <c r="S14">
-        <v>0.001072208943268014</v>
+        <v>0.0001250307717375374</v>
       </c>
       <c r="T14">
-        <v>0.0007740180246611202</v>
+        <v>5.79444786530477E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.9492136666666665</v>
+        <v>0.135832</v>
       </c>
       <c r="H15">
-        <v>2.847640999999999</v>
+        <v>0.271664</v>
       </c>
       <c r="I15">
-        <v>0.06813555909797724</v>
+        <v>0.00451437242115675</v>
       </c>
       <c r="J15">
-        <v>0.07256340950767776</v>
+        <v>0.003059925757512801</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>131.294375</v>
       </c>
       <c r="O15">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P15">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q15">
-        <v>41.54213836881944</v>
+        <v>5.944659181666667</v>
       </c>
       <c r="R15">
-        <v>373.8792453193749</v>
+        <v>35.66795509</v>
       </c>
       <c r="S15">
-        <v>0.06328576306412524</v>
+        <v>0.003092964327692353</v>
       </c>
       <c r="T15">
-        <v>0.06852813757563701</v>
+        <v>0.002150113163783679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.9492136666666665</v>
+        <v>0.135832</v>
       </c>
       <c r="H16">
-        <v>2.847640999999999</v>
+        <v>0.271664</v>
       </c>
       <c r="I16">
-        <v>0.06813555909797724</v>
+        <v>0.00451437242115675</v>
       </c>
       <c r="J16">
-        <v>0.07256340950767776</v>
+        <v>0.003059925757512801</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N16">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O16">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P16">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q16">
-        <v>0.4110531814953333</v>
+        <v>0.09412166026400001</v>
       </c>
       <c r="R16">
-        <v>3.699478633457999</v>
+        <v>0.5647299615840001</v>
       </c>
       <c r="S16">
-        <v>0.0006262030620550313</v>
+        <v>4.897083731183945E-05</v>
       </c>
       <c r="T16">
-        <v>0.0006780755656420005</v>
+        <v>3.40426952237931E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.9492136666666665</v>
+        <v>0.135832</v>
       </c>
       <c r="H17">
-        <v>2.847640999999999</v>
+        <v>0.271664</v>
       </c>
       <c r="I17">
-        <v>0.06813555909797724</v>
+        <v>0.00451437242115675</v>
       </c>
       <c r="J17">
-        <v>0.07256340950767776</v>
+        <v>0.003059925757512801</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N17">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O17">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P17">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q17">
-        <v>1.5080978592155</v>
+        <v>0.409122520284</v>
       </c>
       <c r="R17">
-        <v>9.048587155292998</v>
+        <v>1.636490081136</v>
       </c>
       <c r="S17">
-        <v>0.002297453321937383</v>
+        <v>0.0002128635674853324</v>
       </c>
       <c r="T17">
-        <v>0.001658510958299848</v>
+        <v>9.864986251590387E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.9492136666666665</v>
+        <v>0.135832</v>
       </c>
       <c r="H18">
-        <v>2.847640999999999</v>
+        <v>0.271664</v>
       </c>
       <c r="I18">
-        <v>0.06813555909797724</v>
+        <v>0.00451437242115675</v>
       </c>
       <c r="J18">
-        <v>0.07256340950767776</v>
+        <v>0.003059925757512801</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N18">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O18">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P18">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q18">
-        <v>0.4543604222278889</v>
+        <v>1.924726717069334</v>
       </c>
       <c r="R18">
-        <v>4.089243800050999</v>
+        <v>11.548360302416</v>
       </c>
       <c r="S18">
-        <v>0.0006921778020077217</v>
+        <v>0.001001421762716231</v>
       </c>
       <c r="T18">
-        <v>0.000749515425684673</v>
+        <v>0.0006961509692296045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.9492136666666665</v>
+        <v>0.135832</v>
       </c>
       <c r="H19">
-        <v>2.847640999999999</v>
+        <v>0.271664</v>
       </c>
       <c r="I19">
-        <v>0.06813555909797724</v>
+        <v>0.00451437242115675</v>
       </c>
       <c r="J19">
-        <v>0.07256340950767776</v>
+        <v>0.003059925757512801</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.111859</v>
+        <v>0.4686573333333333</v>
       </c>
       <c r="N19">
-        <v>0.335577</v>
+        <v>1.405972</v>
       </c>
       <c r="O19">
-        <v>0.002373986604428442</v>
+        <v>0.007336823620982684</v>
       </c>
       <c r="P19">
-        <v>0.002413777948713486</v>
+        <v>0.007524557760998953</v>
       </c>
       <c r="Q19">
-        <v>0.1061780915396666</v>
+        <v>0.06365866290133333</v>
       </c>
       <c r="R19">
-        <v>0.9556028238569998</v>
+        <v>0.381951977408</v>
       </c>
       <c r="S19">
-        <v>0.0001617529045838404</v>
+        <v>3.312115421345563E-05</v>
       </c>
       <c r="T19">
-        <v>0.000175151957753099</v>
+        <v>2.302458810677355E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.333827333333333</v>
+        <v>9.165522333333334</v>
       </c>
       <c r="H20">
-        <v>10.001482</v>
+        <v>27.496567</v>
       </c>
       <c r="I20">
-        <v>0.2393056455776398</v>
+        <v>0.3046158581710957</v>
       </c>
       <c r="J20">
-        <v>0.2548571375568999</v>
+        <v>0.309711458295823</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7414780000000001</v>
+        <v>1.769159</v>
       </c>
       <c r="N20">
-        <v>1.482956</v>
+        <v>3.538318</v>
       </c>
       <c r="O20">
-        <v>0.01573640779444115</v>
+        <v>0.02769615797570813</v>
       </c>
       <c r="P20">
-        <v>0.01066678136973736</v>
+        <v>0.0189365635786362</v>
       </c>
       <c r="Q20">
-        <v>2.471959623465334</v>
+        <v>16.21526632571767</v>
       </c>
       <c r="R20">
-        <v>14.831757740792</v>
+        <v>97.291597954306</v>
       </c>
       <c r="S20">
-        <v>0.00376581122632174</v>
+        <v>0.008436688929812568</v>
       </c>
       <c r="T20">
-        <v>0.002718505366836533</v>
+        <v>0.005864870721050987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.333827333333333</v>
+        <v>9.165522333333334</v>
       </c>
       <c r="H21">
-        <v>10.001482</v>
+        <v>27.496567</v>
       </c>
       <c r="I21">
-        <v>0.2393056455776398</v>
+        <v>0.3046158581710957</v>
       </c>
       <c r="J21">
-        <v>0.2548571375568999</v>
+        <v>0.309711458295823</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>131.294375</v>
       </c>
       <c r="O21">
-        <v>0.9288213658468979</v>
+        <v>0.6851371661755414</v>
       </c>
       <c r="P21">
-        <v>0.9443897143282142</v>
+        <v>0.7026684090307325</v>
       </c>
       <c r="Q21">
-        <v>145.9042586959722</v>
+        <v>401.1271754345139</v>
       </c>
       <c r="R21">
-        <v>1313.13832826375</v>
+        <v>3610.144578910625</v>
       </c>
       <c r="S21">
-        <v>0.222272196580297</v>
+        <v>0.2087036458394751</v>
       </c>
       <c r="T21">
-        <v>0.2406844593318671</v>
+        <v>0.217624457659314</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.333827333333333</v>
+        <v>9.165522333333334</v>
       </c>
       <c r="H22">
-        <v>10.001482</v>
+        <v>27.496567</v>
       </c>
       <c r="I22">
-        <v>0.2393056455776398</v>
+        <v>0.3046158581710957</v>
       </c>
       <c r="J22">
-        <v>0.2548571375568999</v>
+        <v>0.309711458295823</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.433046</v>
+        <v>0.6929270000000001</v>
       </c>
       <c r="N22">
-        <v>1.299138</v>
+        <v>2.078781</v>
       </c>
       <c r="O22">
-        <v>0.009190547055680088</v>
+        <v>0.01084776193526614</v>
       </c>
       <c r="P22">
-        <v>0.009344593511282777</v>
+        <v>0.01112533372426134</v>
       </c>
       <c r="Q22">
-        <v>1.443700591390667</v>
+        <v>6.351037893869668</v>
       </c>
       <c r="R22">
-        <v>12.993305322516</v>
+        <v>57.159341044827</v>
       </c>
       <c r="S22">
-        <v>0.0021993497963712</v>
+        <v>0.003304400311146841</v>
       </c>
       <c r="T22">
-        <v>0.002381536353918309</v>
+        <v>0.00344564333176868</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.333827333333333</v>
+        <v>9.165522333333334</v>
       </c>
       <c r="H23">
-        <v>10.001482</v>
+        <v>27.496567</v>
       </c>
       <c r="I23">
-        <v>0.2393056455776398</v>
+        <v>0.3046158581710957</v>
       </c>
       <c r="J23">
-        <v>0.2548571375568999</v>
+        <v>0.309711458295823</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.5887865</v>
+        <v>3.0119745</v>
       </c>
       <c r="N23">
-        <v>3.177573</v>
+        <v>6.023949</v>
       </c>
       <c r="O23">
-        <v>0.03371885917357341</v>
+        <v>0.04715241624455717</v>
       </c>
       <c r="P23">
-        <v>0.0228560230225175</v>
+        <v>0.03223929936002416</v>
       </c>
       <c r="Q23">
-        <v>5.296739860531</v>
+        <v>27.6063195471805</v>
       </c>
       <c r="R23">
-        <v>31.780439163186</v>
+        <v>165.637917283083</v>
       </c>
       <c r="S23">
-        <v>0.008069113362673505</v>
+        <v>0.01436337373917649</v>
       </c>
       <c r="T23">
-        <v>0.005825020603453414</v>
+        <v>0.009984880419228676</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.333827333333333</v>
+        <v>9.165522333333334</v>
       </c>
       <c r="H24">
-        <v>10.001482</v>
+        <v>27.496567</v>
       </c>
       <c r="I24">
-        <v>0.2393056455776398</v>
+        <v>0.3046158581710957</v>
       </c>
       <c r="J24">
-        <v>0.2548571375568999</v>
+        <v>0.309711458295823</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4786703333333334</v>
+        <v>14.16990633333334</v>
       </c>
       <c r="N24">
-        <v>1.436011</v>
+        <v>42.509719</v>
       </c>
       <c r="O24">
-        <v>0.01015883352497904</v>
+        <v>0.2218296740479444</v>
       </c>
       <c r="P24">
-        <v>0.01032910981953472</v>
+        <v>0.2275058365453471</v>
       </c>
       <c r="Q24">
-        <v>1.595804240922444</v>
+        <v>129.8745929594081</v>
       </c>
       <c r="R24">
-        <v>14.362238168302</v>
+        <v>1168.871336634673</v>
       </c>
       <c r="S24">
-        <v>0.002431066215010878</v>
+        <v>0.067572836527929</v>
       </c>
       <c r="T24">
-        <v>0.002632447362117485</v>
+        <v>0.07046116440727059</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.165522333333334</v>
+      </c>
+      <c r="H25">
+        <v>27.496567</v>
+      </c>
+      <c r="I25">
+        <v>0.3046158581710957</v>
+      </c>
+      <c r="J25">
+        <v>0.309711458295823</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4686573333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.405972</v>
+      </c>
+      <c r="O25">
+        <v>0.007336823620982684</v>
+      </c>
+      <c r="P25">
+        <v>0.007524557760998953</v>
+      </c>
+      <c r="Q25">
+        <v>4.295489255347111</v>
+      </c>
+      <c r="R25">
+        <v>38.659403298124</v>
+      </c>
+      <c r="S25">
+        <v>0.002234912823555606</v>
+      </c>
+      <c r="T25">
+        <v>0.002330441757190139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.78733733333333</v>
+      </c>
+      <c r="H26">
+        <v>44.362012</v>
+      </c>
+      <c r="I26">
+        <v>0.4914567100531657</v>
+      </c>
+      <c r="J26">
+        <v>0.4996777753912626</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.769159</v>
+      </c>
+      <c r="N26">
+        <v>3.538318</v>
+      </c>
+      <c r="O26">
+        <v>0.02769615797570813</v>
+      </c>
+      <c r="P26">
+        <v>0.0189365635786362</v>
+      </c>
+      <c r="Q26">
+        <v>26.16115092930267</v>
+      </c>
+      <c r="R26">
+        <v>156.966905575816</v>
+      </c>
+      <c r="S26">
+        <v>0.01361146267985426</v>
+      </c>
+      <c r="T26">
+        <v>0.009462179962528143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.78733733333333</v>
+      </c>
+      <c r="H27">
+        <v>44.362012</v>
+      </c>
+      <c r="I27">
+        <v>0.4914567100531657</v>
+      </c>
+      <c r="J27">
+        <v>0.4996777753912626</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>43.76479166666667</v>
+      </c>
+      <c r="N27">
+        <v>131.294375</v>
+      </c>
+      <c r="O27">
+        <v>0.6851371661755414</v>
+      </c>
+      <c r="P27">
+        <v>0.7026684090307325</v>
+      </c>
+      <c r="Q27">
+        <v>647.1647376980555</v>
+      </c>
+      <c r="R27">
+        <v>5824.4826392825</v>
+      </c>
+      <c r="S27">
+        <v>0.3367152576237806</v>
+      </c>
+      <c r="T27">
+        <v>0.3511077874621942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.78733733333333</v>
+      </c>
+      <c r="H28">
+        <v>44.362012</v>
+      </c>
+      <c r="I28">
+        <v>0.4914567100531657</v>
+      </c>
+      <c r="J28">
+        <v>0.4996777753912626</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.6929270000000001</v>
+      </c>
+      <c r="N28">
+        <v>2.078781</v>
+      </c>
+      <c r="O28">
+        <v>0.01084776193526614</v>
+      </c>
+      <c r="P28">
+        <v>0.01112533372426134</v>
+      </c>
+      <c r="Q28">
+        <v>10.24654529637467</v>
+      </c>
+      <c r="R28">
+        <v>92.21890766737201</v>
+      </c>
+      <c r="S28">
+        <v>0.00533120539214586</v>
+      </c>
+      <c r="T28">
+        <v>0.005559082005824298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.78733733333333</v>
+      </c>
+      <c r="H29">
+        <v>44.362012</v>
+      </c>
+      <c r="I29">
+        <v>0.4914567100531657</v>
+      </c>
+      <c r="J29">
+        <v>0.4996777753912626</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.0119745</v>
+      </c>
+      <c r="N29">
+        <v>6.023949</v>
+      </c>
+      <c r="O29">
+        <v>0.04715241624455717</v>
+      </c>
+      <c r="P29">
+        <v>0.03223929936002416</v>
+      </c>
+      <c r="Q29">
+        <v>44.539082970898</v>
+      </c>
+      <c r="R29">
+        <v>267.234497825388</v>
+      </c>
+      <c r="S29">
+        <v>0.02317337135860751</v>
+      </c>
+      <c r="T29">
+        <v>0.01610926138438983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.333827333333333</v>
-      </c>
-      <c r="H25">
-        <v>10.001482</v>
-      </c>
-      <c r="I25">
-        <v>0.2393056455776398</v>
-      </c>
-      <c r="J25">
-        <v>0.2548571375568999</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.111859</v>
-      </c>
-      <c r="N25">
-        <v>0.335577</v>
-      </c>
-      <c r="O25">
-        <v>0.002373986604428442</v>
-      </c>
-      <c r="P25">
-        <v>0.002413777948713486</v>
-      </c>
-      <c r="Q25">
-        <v>0.3729185916793333</v>
-      </c>
-      <c r="R25">
-        <v>3.356267325114</v>
-      </c>
-      <c r="S25">
-        <v>0.0005681083969654171</v>
-      </c>
-      <c r="T25">
-        <v>0.0006151685387070845</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.78733733333333</v>
+      </c>
+      <c r="H30">
+        <v>44.362012</v>
+      </c>
+      <c r="I30">
+        <v>0.4914567100531657</v>
+      </c>
+      <c r="J30">
+        <v>0.4996777753912626</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.16990633333334</v>
+      </c>
+      <c r="N30">
+        <v>42.509719</v>
+      </c>
+      <c r="O30">
+        <v>0.2218296740479444</v>
+      </c>
+      <c r="P30">
+        <v>0.2275058365453471</v>
+      </c>
+      <c r="Q30">
+        <v>209.5351849327365</v>
+      </c>
+      <c r="R30">
+        <v>1885.816664394628</v>
+      </c>
+      <c r="S30">
+        <v>0.1090196817997688</v>
+      </c>
+      <c r="T30">
+        <v>0.1136796102935072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.78733733333333</v>
+      </c>
+      <c r="H31">
+        <v>44.362012</v>
+      </c>
+      <c r="I31">
+        <v>0.4914567100531657</v>
+      </c>
+      <c r="J31">
+        <v>0.4996777753912626</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4686573333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.405972</v>
+      </c>
+      <c r="O31">
+        <v>0.007336823620982684</v>
+      </c>
+      <c r="P31">
+        <v>0.007524557760998953</v>
+      </c>
+      <c r="Q31">
+        <v>6.930194081740444</v>
+      </c>
+      <c r="R31">
+        <v>62.371746735664</v>
+      </c>
+      <c r="S31">
+        <v>0.003605731199008504</v>
+      </c>
+      <c r="T31">
+        <v>0.003759854282819016</v>
       </c>
     </row>
   </sheetData>
